--- a/data/trans_dic/IMC_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 98,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>60,91%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,25%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>46,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>54,33%</t>
+          <t>50,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,73%</t>
+          <t>54,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>51,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>52,42%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53,15%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>52,43%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,92; 67,32</t>
+          <t>44,6; 64,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,91; 65,12</t>
+          <t>47,14; 67,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,08; 67,61</t>
+          <t>44,51; 66,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,72; 53,64</t>
+          <t>34,25; 59,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,88; 52,27</t>
+          <t>39,7; 54,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,48; 52,62</t>
+          <t>40,74; 55,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>49,82; 58,91</t>
+          <t>43,41; 58,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,14; 56,68</t>
+          <t>46,04; 61,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,94; 58,02</t>
+          <t>44,8; 56,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>45,83; 57,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46,64; 58,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43,98; 58,33</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>62,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,82%</t>
+          <t>63,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>43,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,13%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>52,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49,69%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,08; 67,57</t>
+          <t>52,3; 70,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,62; 65,06</t>
+          <t>51,79; 71,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,26; 68,85</t>
+          <t>54,18; 71,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,32; 51,11</t>
+          <t>50,25; 68,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,31; 51,52</t>
+          <t>36,17; 52,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,2; 49,67</t>
+          <t>35,69; 51,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,18; 56,49</t>
+          <t>31,62; 46,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,68; 56,61</t>
+          <t>31,84; 47,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,6; 56,9</t>
+          <t>47,31; 59,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46,6; 58,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44,6; 57,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43,77; 56,12</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,82%</t>
+          <t>79,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>69,69%</t>
+          <t>80,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,99%</t>
+          <t>81,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>52,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>61,64%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>64,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>67,46%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73,4%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,04; 83,22</t>
+          <t>58,38; 94,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,4; 81,71</t>
+          <t>53,89; 91,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,14; 82,55</t>
+          <t>59,81; 94,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,68; 68,54</t>
+          <t>60,65; 95,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,18; 65,51</t>
+          <t>33,77; 66,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,66; 72,88</t>
+          <t>37,18; 69,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>54,26; 73,61</t>
+          <t>36,35; 69,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,52; 71,27</t>
+          <t>46,39; 78,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,97; 75,14</t>
+          <t>50,22; 78,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>52,16; 77,66</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>53,08; 80,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>60,53; 84,27</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>61,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>61,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>57,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,42%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>49,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>53,15%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53,81%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53,6%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,4; 66,44</t>
+          <t>54,38; 66,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,01; 64,92</t>
+          <t>54,52; 67,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,87; 67,22</t>
+          <t>53,3; 67,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,91; 51,78</t>
+          <t>48,16; 65,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,74; 50,65</t>
+          <t>41,21; 50,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,51; 50,23</t>
+          <t>41,11; 51,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,0; 57,41</t>
+          <t>40,27; 50,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,07; 56,53</t>
+          <t>44,66; 54,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,96; 57,41</t>
+          <t>49,01; 57,23</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>49,86; 57,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49,01; 58,23</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>48,37; 58,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 98,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>238317</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>205663</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>209675</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>257257</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>226988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>195607</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>199771</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>290427</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>465305</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>401270</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>409445</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>547683</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>189695; 273586</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>167206; 239326</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>165177; 247103</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>174445; 304666</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>191795; 263274</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>167377; 226359</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>173284; 232086</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>246435; 330022</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>406965; 514548</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>350803; 442495</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>359248; 454276</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>459412; 609247</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>224427</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>193801</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>202985</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>241417</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>182378</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>140174</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>126430</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>156815</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>406805</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>333975</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>329415</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>398232</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>187984; 254488</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>162704; 223422</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>173697; 230771</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>203052; 276276</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>149210; 216370</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>114524; 166684</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>103397; 152489</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>126473; 190535</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>365190; 461184</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>295891; 373659</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>288805; 370046</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>350751; 449753</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>74640</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>60751</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>68923</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>97815</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>47379</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40790</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38984</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>63138</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>122018</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>101541</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>107907</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>160953</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55160; 88975</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42894; 72499</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51192; 80466</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>72410; 113492</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32270; 63744</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27880; 52137</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27033; 51794</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46336; 78378</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>95434; 149451</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>80624; 120048</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>84913; 128353</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>132721; 184799</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>537384</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>460214</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>481583</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>596489</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>456744</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>376572</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>365184</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>510379</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>994128</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>836786</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>846767</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1106868</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>478162; 587306</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>408061; 507693</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>414285; 528097</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>497349; 672419</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>408472; 504911</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>331584; 414059</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>322382; 404059</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>461092; 561232</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>916579; 1070415</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>775386; 901186</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>773245; 918775</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>998837; 1204691</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
